--- a/31 - Gen VIII - SWSH Collection/Hunting.xlsx
+++ b/31 - Gen VIII - SWSH Collection/Hunting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\RoCs-PC\31 - Gen VIII - SWSH Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\RoCs-PC\31 - Gen VIII - SWSH Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D3F69D-127C-4474-BC5D-62048CE902FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{C76A387B-0C5A-47D0-B3D9-5D68A762B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{715A0CE9-9901-41F8-B082-88C11FDC0C9D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sword" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="681">
   <si>
     <t>Pokemon</t>
   </si>
@@ -2069,6 +2069,12 @@
   </si>
   <si>
     <t>https://roc.ms/rocpc</t>
+  </si>
+  <si>
+    <t>Greedent</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2116,9 +2122,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2158,7 +2194,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73D729FC-4730-4A8F-901C-57D635D5815B}" name="Table2" displayName="Table2" ref="A1:C258" totalsRowShown="0">
   <autoFilter ref="A1:C258" xr:uid="{EB4D78EE-1181-47B1-A88E-8A9CA8D94090}"/>
-  <sortState ref="A2:B258">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B258">
     <sortCondition ref="A1:A258"/>
   </sortState>
   <tableColumns count="3">
@@ -2471,15 +2507,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>382</v>
       </c>
@@ -2495,15 +2531,15 @@
       <c r="F1" t="s">
         <v>675</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2516,15 +2552,15 @@
       <c r="F2" t="s">
         <v>676</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2535,7 +2571,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2546,7 +2582,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2556,8 +2592,11 @@
       <c r="C5" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2568,7 +2607,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2579,7 +2618,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2590,7 +2629,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2601,7 +2640,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2612,7 +2651,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2622,8 +2661,11 @@
       <c r="C11" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2633,8 +2675,11 @@
       <c r="C12" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2645,7 +2690,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2655,8 +2700,11 @@
       <c r="C14" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2666,8 +2714,11 @@
       <c r="C15" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2678,7 +2729,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2688,8 +2739,11 @@
       <c r="C17" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2700,7 +2754,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2711,7 +2765,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2721,8 +2775,11 @@
       <c r="C20" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2733,7 +2790,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2743,8 +2800,11 @@
       <c r="C22" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2755,7 +2815,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2766,7 +2826,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2776,8 +2836,11 @@
       <c r="C25" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2788,7 +2851,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2799,7 +2862,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2810,7 +2873,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2821,7 +2884,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2831,8 +2894,11 @@
       <c r="C30" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2843,7 +2909,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2853,8 +2919,11 @@
       <c r="C32" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2865,7 +2934,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2876,7 +2945,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2886,8 +2955,11 @@
       <c r="C35" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2898,7 +2970,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2909,7 +2981,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2920,7 +2992,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2931,7 +3003,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2941,8 +3013,11 @@
       <c r="C40" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2952,8 +3027,11 @@
       <c r="C41" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2964,7 +3042,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2974,8 +3052,11 @@
       <c r="C43" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2986,7 +3067,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2996,8 +3077,11 @@
       <c r="C45" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3008,7 +3092,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3018,8 +3102,11 @@
       <c r="C47" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3030,7 +3117,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3040,8 +3127,11 @@
       <c r="C49" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3052,7 +3142,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3062,8 +3152,11 @@
       <c r="C51" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3074,7 +3167,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3085,7 +3178,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3096,7 +3189,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3107,7 +3200,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3117,8 +3210,11 @@
       <c r="C56" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D56" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3129,7 +3225,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3140,7 +3236,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3151,7 +3247,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3161,8 +3257,11 @@
       <c r="C60" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D60" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3173,7 +3272,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3184,7 +3283,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3194,8 +3293,11 @@
       <c r="C63" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D63" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3206,7 +3308,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3216,8 +3318,11 @@
       <c r="C65" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3228,7 +3333,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3238,8 +3343,11 @@
       <c r="C67" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D67" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3250,7 +3358,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3260,8 +3368,11 @@
       <c r="C69" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D69" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3272,7 +3383,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3283,7 +3394,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3294,7 +3405,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3304,8 +3415,11 @@
       <c r="C73" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D73" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3316,7 +3430,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3327,7 +3441,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3338,7 +3452,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3349,7 +3463,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3360,7 +3474,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3370,8 +3484,11 @@
       <c r="C79" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D79" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3381,8 +3498,11 @@
       <c r="C80" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D80" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3393,7 +3513,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3404,7 +3524,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3415,7 +3535,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3426,7 +3546,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3436,8 +3556,11 @@
       <c r="C85" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D85" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3448,7 +3571,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3459,7 +3582,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3470,7 +3593,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3481,7 +3604,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3492,7 +3615,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3503,7 +3626,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3514,7 +3637,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3525,7 +3648,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3536,7 +3659,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3546,8 +3669,11 @@
       <c r="C95" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D95" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3558,7 +3684,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3569,7 +3695,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3580,7 +3706,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3591,7 +3717,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3602,7 +3728,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3613,7 +3739,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3624,7 +3750,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3635,7 +3761,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3646,7 +3772,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3657,7 +3783,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3668,7 +3794,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3679,7 +3805,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3689,8 +3815,11 @@
       <c r="C108" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D108" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3701,7 +3830,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3712,7 +3841,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3723,7 +3852,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3733,8 +3862,11 @@
       <c r="C112" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D112" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3745,7 +3877,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3755,8 +3887,11 @@
       <c r="C114" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D114" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3767,7 +3902,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3778,7 +3913,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3789,7 +3924,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3800,7 +3935,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3811,7 +3946,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3822,7 +3957,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3833,7 +3968,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3844,7 +3979,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3855,7 +3990,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3866,7 +4001,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3877,7 +4012,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3888,7 +4023,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3898,8 +4033,11 @@
       <c r="C127" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D127" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3910,7 +4048,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3920,8 +4058,11 @@
       <c r="C129" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D129" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3932,7 +4073,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3942,8 +4083,11 @@
       <c r="C131" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D131" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3954,7 +4098,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3964,8 +4108,11 @@
       <c r="C133" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D133" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3976,7 +4123,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3987,7 +4134,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3998,7 +4145,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4009,7 +4156,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4020,7 +4167,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4030,8 +4177,11 @@
       <c r="C139" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D139" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4042,7 +4192,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4053,7 +4203,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4064,7 +4214,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4075,7 +4225,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4086,7 +4236,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4096,8 +4246,11 @@
       <c r="C145" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D145" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4108,7 +4261,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4118,8 +4271,11 @@
       <c r="C147" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D147" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4130,7 +4286,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4140,8 +4296,11 @@
       <c r="C149" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D149" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4152,7 +4311,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4162,8 +4321,11 @@
       <c r="C151" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D151" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4174,7 +4336,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4185,7 +4347,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4196,7 +4358,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4207,7 +4369,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4217,8 +4379,11 @@
       <c r="C156" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D156" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4229,7 +4394,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4239,8 +4404,11 @@
       <c r="C158" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D158" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4251,7 +4419,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4262,7 +4430,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4273,7 +4441,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4283,8 +4451,11 @@
       <c r="C162" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D162" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4295,7 +4466,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4306,7 +4477,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4316,8 +4487,11 @@
       <c r="C165" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D165" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4328,7 +4502,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4338,8 +4512,11 @@
       <c r="C167" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D167" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4350,7 +4527,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4360,8 +4537,11 @@
       <c r="C169" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D169" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4372,7 +4552,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4383,7 +4563,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4393,8 +4573,11 @@
       <c r="C172" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D172" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4405,7 +4588,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4416,7 +4599,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4426,8 +4609,11 @@
       <c r="C175" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D175" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4438,7 +4624,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4449,7 +4635,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4460,7 +4646,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4471,7 +4657,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4482,7 +4668,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4492,8 +4678,11 @@
       <c r="C181" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D181" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4504,7 +4693,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4514,8 +4703,11 @@
       <c r="C183" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D183" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4526,7 +4718,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4537,7 +4729,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4547,8 +4739,11 @@
       <c r="C186" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D186" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4559,7 +4754,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4570,7 +4765,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4581,7 +4776,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4592,7 +4787,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4603,7 +4798,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4613,8 +4808,11 @@
       <c r="C192" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D192" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4625,7 +4823,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4636,7 +4834,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4646,8 +4844,11 @@
       <c r="C195" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D195" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4658,7 +4859,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4669,7 +4870,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4680,7 +4881,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4691,7 +4892,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4702,7 +4903,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4713,7 +4914,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4724,7 +4925,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4735,7 +4936,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4746,7 +4947,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4757,7 +4958,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4768,7 +4969,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4779,7 +4980,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4790,7 +4991,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4800,8 +5001,11 @@
       <c r="C209" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D209" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4812,7 +5016,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4822,8 +5026,11 @@
       <c r="C211" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D211" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4834,7 +5041,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4845,7 +5052,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4856,7 +5063,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4867,7 +5074,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4878,7 +5085,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4889,7 +5096,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4899,8 +5106,11 @@
       <c r="C218" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D218" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4910,8 +5120,11 @@
       <c r="C219" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D219" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4922,7 +5135,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4933,7 +5146,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4944,7 +5157,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4955,7 +5168,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4966,7 +5179,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4977,7 +5190,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4988,7 +5201,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4999,7 +5212,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5010,7 +5223,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5021,7 +5234,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5032,7 +5245,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5043,7 +5256,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5054,7 +5267,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5065,7 +5278,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5076,7 +5289,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5087,7 +5300,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5098,7 +5311,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5109,7 +5322,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5120,7 +5333,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5131,7 +5344,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5142,7 +5355,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5153,7 +5366,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5164,7 +5377,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5175,7 +5388,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5186,7 +5399,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5197,7 +5410,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5208,7 +5421,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5219,7 +5432,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5230,7 +5443,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5241,7 +5454,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5252,7 +5465,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5263,7 +5476,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5274,7 +5487,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5285,7 +5498,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5296,7 +5509,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5307,7 +5520,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5318,7 +5531,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5329,7 +5542,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5340,7 +5553,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5351,7 +5564,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5362,7 +5575,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5373,7 +5586,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5384,7 +5597,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5395,7 +5608,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5406,7 +5619,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -5417,7 +5630,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -5428,7 +5641,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -5439,7 +5652,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -5450,7 +5663,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -5461,7 +5674,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -5472,7 +5685,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -5483,7 +5696,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -5494,7 +5707,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5505,7 +5718,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5516,7 +5729,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5527,7 +5740,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5538,7 +5751,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5549,7 +5762,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5560,7 +5773,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5571,7 +5784,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5582,7 +5795,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5593,7 +5806,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5604,7 +5817,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5615,7 +5828,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5626,7 +5839,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5637,7 +5850,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5648,7 +5861,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5659,7 +5872,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5670,7 +5883,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5681,7 +5894,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5692,7 +5905,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5703,7 +5916,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5714,7 +5927,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5725,7 +5938,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5736,7 +5949,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5747,7 +5960,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5758,7 +5971,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5769,7 +5982,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -5780,7 +5993,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -5791,7 +6004,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -5802,7 +6015,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -5813,7 +6026,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -5824,7 +6037,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -5835,7 +6048,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -5846,7 +6059,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -5857,7 +6070,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -5868,7 +6081,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -5879,7 +6092,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -5890,7 +6103,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -5901,7 +6114,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -5912,7 +6125,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -5923,7 +6136,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -5934,7 +6147,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -5945,7 +6158,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -5956,7 +6169,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -5967,7 +6180,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -5978,7 +6191,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -5989,7 +6202,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -6000,7 +6213,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -6011,7 +6224,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -6022,7 +6235,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -6033,7 +6246,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -6044,7 +6257,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -6055,7 +6268,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -6066,7 +6279,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -6077,7 +6290,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -6088,7 +6301,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -6099,7 +6312,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -6110,7 +6323,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -6121,7 +6334,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -6132,7 +6345,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -6143,7 +6356,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -6154,7 +6367,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -6165,7 +6378,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -6176,7 +6389,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -6187,7 +6400,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -6198,7 +6411,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -6209,7 +6422,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -6220,7 +6433,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -6231,7 +6444,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -6242,7 +6455,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -6253,7 +6466,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -6264,7 +6477,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -6275,7 +6488,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -6286,7 +6499,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -6297,7 +6510,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -6308,7 +6521,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -6319,7 +6532,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -6330,7 +6543,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -6341,7 +6554,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -6352,7 +6565,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -6363,7 +6576,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -6374,7 +6587,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -6385,7 +6598,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -6396,7 +6609,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -6407,7 +6620,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -6418,7 +6631,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -6429,7 +6642,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -6440,7 +6653,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -6451,7 +6664,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -6462,7 +6675,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -6473,7 +6686,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -6484,7 +6697,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -6495,7 +6708,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -6506,7 +6719,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -6517,7 +6730,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -6528,7 +6741,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -6539,7 +6752,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -6550,7 +6763,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -6561,7 +6774,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -6572,7 +6785,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -6583,7 +6796,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -6594,7 +6807,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -6605,7 +6818,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -6616,7 +6829,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -6627,7 +6840,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -6638,7 +6851,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -6649,7 +6862,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -6660,7 +6873,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -6671,7 +6884,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -6682,7 +6895,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -6693,7 +6906,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -6704,7 +6917,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -6715,7 +6928,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -6726,7 +6939,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -6737,7 +6950,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -6748,7 +6961,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -6759,7 +6972,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -6770,7 +6983,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -6781,7 +6994,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -6792,7 +7005,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -6803,7 +7016,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -6814,7 +7027,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -6825,7 +7038,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -6836,7 +7049,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -6847,7 +7060,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -6858,7 +7071,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -6869,7 +7082,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -6880,7 +7093,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -6891,7 +7104,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -6902,7 +7115,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -6913,7 +7126,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>900</v>
       </c>
@@ -6923,8 +7136,11 @@
       <c r="C402" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D402" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>901</v>
       </c>
@@ -6935,7 +7151,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>902</v>
       </c>
@@ -6945,8 +7161,11 @@
       <c r="C404" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D404" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>903</v>
       </c>
@@ -6955,6 +7174,9 @@
       </c>
       <c r="C405" t="s">
         <v>598</v>
+      </c>
+      <c r="D405" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -6980,14 +7202,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>666</v>
       </c>
@@ -6998,7 +7220,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>25</v>
       </c>
@@ -7009,7 +7231,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>36</v>
       </c>
@@ -7020,7 +7242,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>37</v>
       </c>
@@ -7031,7 +7253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45</v>
       </c>
@@ -7042,7 +7264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45</v>
       </c>
@@ -7053,7 +7275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45</v>
       </c>
@@ -7064,7 +7286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -7075,7 +7297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>58</v>
       </c>
@@ -7086,7 +7308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>67</v>
       </c>
@@ -7097,7 +7319,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>67</v>
       </c>
@@ -7108,7 +7330,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>68</v>
       </c>
@@ -7119,7 +7341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>91</v>
       </c>
@@ -7130,7 +7352,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>93</v>
       </c>
@@ -7141,7 +7363,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>93</v>
       </c>
@@ -7152,7 +7374,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>94</v>
       </c>
@@ -7163,7 +7385,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>95</v>
       </c>
@@ -7174,7 +7396,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>99</v>
       </c>
@@ -7185,7 +7407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>99</v>
       </c>
@@ -7196,7 +7418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>110</v>
       </c>
@@ -7207,7 +7429,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>112</v>
       </c>
@@ -7218,7 +7440,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>112</v>
       </c>
@@ -7229,7 +7451,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>112</v>
       </c>
@@ -7240,7 +7462,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>112</v>
       </c>
@@ -7251,7 +7473,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>112</v>
       </c>
@@ -7262,7 +7484,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>119</v>
       </c>
@@ -7273,7 +7495,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>130</v>
       </c>
@@ -7284,7 +7506,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>130</v>
       </c>
@@ -7295,7 +7517,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>130</v>
       </c>
@@ -7306,7 +7528,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>131</v>
       </c>
@@ -7317,7 +7539,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>131</v>
       </c>
@@ -7328,7 +7550,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>134</v>
       </c>
@@ -7339,7 +7561,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>135</v>
       </c>
@@ -7350,7 +7572,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>136</v>
       </c>
@@ -7361,7 +7583,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>143</v>
       </c>
@@ -7372,7 +7594,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>164</v>
       </c>
@@ -7383,7 +7605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>171</v>
       </c>
@@ -7394,7 +7616,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>178</v>
       </c>
@@ -7405,7 +7627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>178</v>
       </c>
@@ -7416,7 +7638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>182</v>
       </c>
@@ -7427,7 +7649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>185</v>
       </c>
@@ -7438,7 +7660,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>195</v>
       </c>
@@ -7449,7 +7671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>196</v>
       </c>
@@ -7460,7 +7682,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>197</v>
       </c>
@@ -7471,7 +7693,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>208</v>
       </c>
@@ -7482,7 +7704,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>208</v>
       </c>
@@ -7493,7 +7715,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>213</v>
       </c>
@@ -7504,7 +7726,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>221</v>
       </c>
@@ -7515,7 +7737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>221</v>
       </c>
@@ -7526,7 +7748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>221</v>
       </c>
@@ -7537,7 +7759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>221</v>
       </c>
@@ -7548,7 +7770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>224</v>
       </c>
@@ -7559,7 +7781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>248</v>
       </c>
@@ -7570,7 +7792,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>264</v>
       </c>
@@ -7581,7 +7803,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>272</v>
       </c>
@@ -7592,7 +7814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>275</v>
       </c>
@@ -7603,7 +7825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>279</v>
       </c>
@@ -7614,7 +7836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>279</v>
       </c>
@@ -7625,7 +7847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>279</v>
       </c>
@@ -7636,7 +7858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>279</v>
       </c>
@@ -7647,7 +7869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>281</v>
       </c>
@@ -7658,7 +7880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>282</v>
       </c>
@@ -7669,7 +7891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>282</v>
       </c>
@@ -7680,7 +7902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>291</v>
       </c>
@@ -7691,7 +7913,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>310</v>
       </c>
@@ -7702,7 +7924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>315</v>
       </c>
@@ -7713,7 +7935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>320</v>
       </c>
@@ -7724,7 +7946,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>324</v>
       </c>
@@ -7735,7 +7957,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>330</v>
       </c>
@@ -7746,7 +7968,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>340</v>
       </c>
@@ -7757,7 +7979,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>342</v>
       </c>
@@ -7768,7 +7990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>342</v>
       </c>
@@ -7779,7 +8001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>344</v>
       </c>
@@ -7790,7 +8012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>344</v>
       </c>
@@ -7801,7 +8023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>344</v>
       </c>
@@ -7812,7 +8034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>344</v>
       </c>
@@ -7823,7 +8045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>350</v>
       </c>
@@ -7834,7 +8056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>356</v>
       </c>
@@ -7845,7 +8067,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>356</v>
       </c>
@@ -7856,7 +8078,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>356</v>
       </c>
@@ -7867,7 +8089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>362</v>
       </c>
@@ -7878,7 +8100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>362</v>
       </c>
@@ -7889,7 +8111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>362</v>
       </c>
@@ -7900,7 +8122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>362</v>
       </c>
@@ -7911,7 +8133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>407</v>
       </c>
@@ -7922,7 +8144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>416</v>
       </c>
@@ -7933,7 +8155,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>423</v>
       </c>
@@ -7944,7 +8166,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>423</v>
       </c>
@@ -7955,7 +8177,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>426</v>
       </c>
@@ -7966,7 +8188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>426</v>
       </c>
@@ -7977,7 +8199,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>426</v>
       </c>
@@ -7988,7 +8210,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>426</v>
       </c>
@@ -7999,7 +8221,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>435</v>
       </c>
@@ -8010,7 +8232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>435</v>
       </c>
@@ -8021,7 +8243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>435</v>
       </c>
@@ -8032,7 +8254,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>437</v>
       </c>
@@ -8043,7 +8265,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>437</v>
       </c>
@@ -8054,7 +8276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>437</v>
       </c>
@@ -8065,7 +8287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>437</v>
       </c>
@@ -8076,7 +8298,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>439</v>
       </c>
@@ -8087,7 +8309,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>448</v>
       </c>
@@ -8098,7 +8320,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>452</v>
       </c>
@@ -8109,7 +8331,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>452</v>
       </c>
@@ -8120,7 +8342,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>460</v>
       </c>
@@ -8131,7 +8353,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>460</v>
       </c>
@@ -8142,7 +8364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>460</v>
       </c>
@@ -8153,7 +8375,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>460</v>
       </c>
@@ -8164,7 +8386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>460</v>
       </c>
@@ -8175,7 +8397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>461</v>
       </c>
@@ -8186,7 +8408,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>470</v>
       </c>
@@ -8197,7 +8419,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>471</v>
       </c>
@@ -8208,7 +8430,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>475</v>
       </c>
@@ -8219,7 +8441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>477</v>
       </c>
@@ -8230,7 +8452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>477</v>
       </c>
@@ -8241,7 +8463,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>478</v>
       </c>
@@ -8252,7 +8474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>510</v>
       </c>
@@ -8263,7 +8485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>510</v>
       </c>
@@ -8274,7 +8496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>518</v>
       </c>
@@ -8285,7 +8507,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>518</v>
       </c>
@@ -8296,7 +8518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>521</v>
       </c>
@@ -8307,7 +8529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>521</v>
       </c>
@@ -8318,7 +8540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>526</v>
       </c>
@@ -8329,7 +8551,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>526</v>
       </c>
@@ -8340,7 +8562,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>527</v>
       </c>
@@ -8351,7 +8573,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>530</v>
       </c>
@@ -8362,7 +8584,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>534</v>
       </c>
@@ -8373,7 +8595,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>534</v>
       </c>
@@ -8384,7 +8606,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>536</v>
       </c>
@@ -8395,7 +8617,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>536</v>
       </c>
@@ -8406,7 +8628,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>537</v>
       </c>
@@ -8417,7 +8639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>537</v>
       </c>
@@ -8428,7 +8650,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>537</v>
       </c>
@@ -8439,7 +8661,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>537</v>
       </c>
@@ -8450,7 +8672,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>537</v>
       </c>
@@ -8461,7 +8683,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>537</v>
       </c>
@@ -8472,7 +8694,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>537</v>
       </c>
@@ -8483,7 +8705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>558</v>
       </c>
@@ -8494,7 +8716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>558</v>
       </c>
@@ -8505,7 +8727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>558</v>
       </c>
@@ -8516,7 +8738,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>558</v>
       </c>
@@ -8527,7 +8749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>561</v>
       </c>
@@ -8538,7 +8760,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>561</v>
       </c>
@@ -8549,7 +8771,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>561</v>
       </c>
@@ -8560,7 +8782,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>561</v>
       </c>
@@ -8571,7 +8793,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>569</v>
       </c>
@@ -8582,7 +8804,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>569</v>
       </c>
@@ -8593,7 +8815,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>573</v>
       </c>
@@ -8604,7 +8826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>583</v>
       </c>
@@ -8615,7 +8837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>583</v>
       </c>
@@ -8626,7 +8848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>584</v>
       </c>
@@ -8637,7 +8859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>584</v>
       </c>
@@ -8648,7 +8870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>593</v>
       </c>
@@ -8659,7 +8881,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>596</v>
       </c>
@@ -8670,7 +8892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>598</v>
       </c>
@@ -8681,7 +8903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>600</v>
       </c>
@@ -8692,7 +8914,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>601</v>
       </c>
@@ -8703,7 +8925,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>606</v>
       </c>
@@ -8714,7 +8936,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>607</v>
       </c>
@@ -8725,7 +8947,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>609</v>
       </c>
@@ -8736,7 +8958,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>612</v>
       </c>
@@ -8747,7 +8969,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>612</v>
       </c>
@@ -8758,7 +8980,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>614</v>
       </c>
@@ -8769,7 +8991,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>614</v>
       </c>
@@ -8780,7 +9002,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>614</v>
       </c>
@@ -8791,7 +9013,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>618</v>
       </c>
@@ -8802,7 +9024,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>618</v>
       </c>
@@ -8813,7 +9035,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>623</v>
       </c>
@@ -8824,7 +9046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>623</v>
       </c>
@@ -8835,7 +9057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>623</v>
       </c>
@@ -8846,7 +9068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>623</v>
       </c>
@@ -8857,7 +9079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>625</v>
       </c>
@@ -8868,7 +9090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>660</v>
       </c>
@@ -8879,7 +9101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>660</v>
       </c>
@@ -8890,7 +9112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>660</v>
       </c>
@@ -8901,7 +9123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>675</v>
       </c>
@@ -8912,7 +9134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>675</v>
       </c>
@@ -8923,7 +9145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>680</v>
       </c>
@@ -8934,7 +9156,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>681</v>
       </c>
@@ -8945,7 +9167,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>689</v>
       </c>
@@ -8956,7 +9178,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>700</v>
       </c>
@@ -8967,7 +9189,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>701</v>
       </c>
@@ -8978,7 +9200,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>711</v>
       </c>
@@ -8989,7 +9211,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>713</v>
       </c>
@@ -9000,7 +9222,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>715</v>
       </c>
@@ -9011,7 +9233,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>738</v>
       </c>
@@ -9022,7 +9244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>743</v>
       </c>
@@ -9033,7 +9255,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>743</v>
       </c>
@@ -9044,7 +9266,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>750</v>
       </c>
@@ -9055,7 +9277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>750</v>
       </c>
@@ -9066,7 +9288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>750</v>
       </c>
@@ -9077,7 +9299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>750</v>
       </c>
@@ -9088,7 +9310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>752</v>
       </c>
@@ -9099,7 +9321,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>756</v>
       </c>
@@ -9110,7 +9332,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>760</v>
       </c>
@@ -9121,7 +9343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>760</v>
       </c>
@@ -9132,7 +9354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>760</v>
       </c>
@@ -9143,7 +9365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>760</v>
       </c>
@@ -9154,7 +9376,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>763</v>
       </c>
@@ -9165,7 +9387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>763</v>
       </c>
@@ -9176,7 +9398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>768</v>
       </c>
@@ -9187,7 +9409,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>768</v>
       </c>
@@ -9198,7 +9420,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>778</v>
       </c>
@@ -9209,7 +9431,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>784</v>
       </c>
@@ -9220,444 +9442,609 @@
         <v>304</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>819</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C204" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>819</v>
       </c>
       <c r="B205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C205" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>820</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C206" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>821</v>
       </c>
       <c r="B207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C207" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>822</v>
       </c>
       <c r="B208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C208" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>822</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C209" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>823</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C210" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>823</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C211" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>823</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C212" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>823</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C213" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>823</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C214" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>826</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C215" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>826</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C216" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>828</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C217" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>830</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C218" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>830</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C219" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>832</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C220" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>833</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C221" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>834</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C222" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>834</v>
       </c>
       <c r="B223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C223" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>834</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C224" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>834</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C225" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>835</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C226" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>836</v>
       </c>
       <c r="B227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C227" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>838</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C228" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>839</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C229" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>844</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C230" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>845</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C231" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>850</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C232" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>853</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C233" s="27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>853</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C234" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>853</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C235" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>858</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C236" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>859</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C237" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>860</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C238" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>861</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C239" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>862</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C240" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>862</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C241" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>863</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C242" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>870</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C243" s="29" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>879</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C244" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>884</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C245" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>888</v>
       </c>
       <c r="B246">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C246" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>888</v>
       </c>
       <c r="B247">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C247" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>888</v>
       </c>
       <c r="B248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C248" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>888</v>
       </c>
       <c r="B249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C249" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>888</v>
       </c>
       <c r="B250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C250" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>889</v>
       </c>
       <c r="B251">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C251" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>889</v>
       </c>
       <c r="B252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C252" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>889</v>
       </c>
       <c r="B253">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C253" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>889</v>
       </c>
       <c r="B254">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C254" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>889</v>
       </c>
       <c r="B255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C255" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>890</v>
       </c>
       <c r="B256">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C256" s="29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>890</v>
       </c>
       <c r="B257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C257" s="29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>890</v>
       </c>
       <c r="B258">
         <v>2</v>
+      </c>
+      <c r="C258" s="29" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/31 - Gen VIII - SWSH Collection/Hunting.xlsx
+++ b/31 - Gen VIII - SWSH Collection/Hunting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\RoCs-PC\31 - Gen VIII - SWSH Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{C76A387B-0C5A-47D0-B3D9-5D68A762B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{715A0CE9-9901-41F8-B082-88C11FDC0C9D}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{C76A387B-0C5A-47D0-B3D9-5D68A762B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBB9CAFB-0416-46B3-AB01-C47A8FF96808}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="683">
   <si>
     <t>Pokemon</t>
   </si>
@@ -994,9 +994,6 @@
     <t>Corviknight</t>
   </si>
   <si>
-    <t>Greedunt</t>
-  </si>
-  <si>
     <t>Nickit</t>
   </si>
   <si>
@@ -2075,6 +2072,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Motostoke Outskirts [!] (5%)</t>
+  </si>
+  <si>
+    <t>Route 6 [Shaking Tree] (100%)</t>
+  </si>
+  <si>
+    <t>Route 9 [Circhester Bay] [Surfing]</t>
   </si>
 </sst>
 </file>
@@ -2179,8 +2185,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A70110D2-3A9A-4AB3-B8DD-5EF3FE6692DF}" name="Table1" displayName="Table1" ref="A1:D405" totalsRowShown="0">
-  <autoFilter ref="A1:D405" xr:uid="{B8B34BC1-B866-4376-8232-AE6655C1A263}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A70110D2-3A9A-4AB3-B8DD-5EF3FE6692DF}" name="Table1" displayName="Table1" ref="A1:D408" totalsRowShown="0">
+  <autoFilter ref="A1:D408" xr:uid="{B8B34BC1-B866-4376-8232-AE6655C1A263}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4F0BF650-0800-4061-8545-A6CDBDB34D96}" name="No." dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6C5622CC-825D-45FC-92D4-A080EBEA58A6}" name="Pokemon"/>
@@ -2503,7 +2513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1920C-6C06-44B6-BD24-7C088C574AB6}">
-  <dimension ref="A1:K405"/>
+  <dimension ref="A1:K408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2517,22 +2527,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F1" t="s">
         <v>674</v>
       </c>
-      <c r="F1" t="s">
-        <v>675</v>
-      </c>
       <c r="G1" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
@@ -2547,13 +2557,13 @@
         <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -2568,7 +2578,7 @@
         <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2579,10 +2589,10 @@
         <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2590,10 +2600,10 @@
         <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2604,7 +2614,7 @@
         <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2615,7 +2625,7 @@
         <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2626,7 +2636,7 @@
         <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2637,7 +2647,7 @@
         <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2648,10 +2658,10 @@
         <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2659,13 +2669,13 @@
         <v>314</v>
       </c>
       <c r="C11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2673,10 +2683,10 @@
         <v>315</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2687,10 +2697,10 @@
         <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2698,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D14" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2712,10 +2722,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2726,10 +2736,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2737,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2751,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2762,10 +2772,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2773,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D20" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2787,10 +2797,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="D21" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2798,10 +2811,10 @@
         <v>317</v>
       </c>
       <c r="C22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2812,7 +2825,7 @@
         <v>318</v>
       </c>
       <c r="C23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2823,32 +2836,35 @@
         <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C25" t="s">
         <v>398</v>
       </c>
-      <c r="C25" t="s">
-        <v>399</v>
-      </c>
       <c r="D25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>678</v>
       </c>
       <c r="C26" t="s">
-        <v>404</v>
+        <v>681</v>
+      </c>
+      <c r="D26" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2859,7 +2875,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2870,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2881,21 +2897,21 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2903,24 +2919,24 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2928,10 +2944,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2939,24 +2955,24 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2964,10 +2980,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2978,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2989,7 +3005,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3000,10 +3016,10 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3011,13 +3027,13 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D40" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3025,10 +3041,10 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D41" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3039,35 +3055,38 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D43" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C44" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="D44" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3075,13 +3094,13 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D45" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3089,21 +3108,24 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="D46" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D47" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3111,13 +3133,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C48" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3125,10 +3147,10 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3139,10 +3161,10 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3150,10 +3172,10 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D51" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3164,7 +3186,7 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3175,7 +3197,7 @@
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3186,7 +3208,7 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3197,10 +3219,10 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3208,10 +3230,10 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D56" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3222,7 +3244,7 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3233,7 +3255,7 @@
         <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3244,10 +3266,10 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3255,10 +3277,10 @@
         <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D60" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3269,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3280,10 +3302,10 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3291,13 +3313,13 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D63" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3305,10 +3327,13 @@
         <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="D64" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3316,13 +3341,13 @@
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D65" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3330,10 +3355,13 @@
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="D66" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3341,10 +3369,10 @@
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D67" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3355,10 +3383,10 @@
         <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3366,10 +3394,10 @@
         <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3380,7 +3408,7 @@
         <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3391,7 +3419,7 @@
         <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3402,10 +3430,10 @@
         <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3413,10 +3441,10 @@
         <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D73" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3427,7 +3455,7 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3438,7 +3466,7 @@
         <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3449,7 +3477,7 @@
         <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3460,7 +3488,7 @@
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3471,10 +3499,10 @@
         <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3482,13 +3510,13 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D79" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3496,10 +3524,10 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D80" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3510,7 +3538,7 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3521,7 +3549,7 @@
         <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3532,7 +3560,7 @@
         <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3543,10 +3571,10 @@
         <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3554,10 +3582,10 @@
         <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3568,7 +3596,7 @@
         <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3579,10 +3607,10 @@
         <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3590,10 +3618,13 @@
         <v>59</v>
       </c>
       <c r="C88" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="D88" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3601,7 +3632,10 @@
         <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="D89" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3612,7 +3646,7 @@
         <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3623,7 +3657,7 @@
         <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3634,7 +3668,7 @@
         <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3645,7 +3679,7 @@
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3656,10 +3690,10 @@
         <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3667,10 +3701,10 @@
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D95" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3681,7 +3715,7 @@
         <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3692,7 +3726,7 @@
         <v>68</v>
       </c>
       <c r="C97" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3703,7 +3737,7 @@
         <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3714,7 +3748,7 @@
         <v>70</v>
       </c>
       <c r="C99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3725,7 +3759,7 @@
         <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3736,7 +3770,7 @@
         <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3747,10 +3781,10 @@
         <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3758,7 +3792,10 @@
         <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>455</v>
+        <v>454</v>
+      </c>
+      <c r="D103" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3769,10 +3806,10 @@
         <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3780,7 +3817,10 @@
         <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>595</v>
+        <v>594</v>
+      </c>
+      <c r="D105" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3791,7 +3831,7 @@
         <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3802,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3813,10 +3853,10 @@
         <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D108" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3827,7 +3867,7 @@
         <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3838,7 +3878,7 @@
         <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3849,10 +3889,10 @@
         <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3860,10 +3900,10 @@
         <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D112" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3874,10 +3914,10 @@
         <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3885,10 +3925,10 @@
         <v>85</v>
       </c>
       <c r="C114" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D114" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3899,7 +3939,7 @@
         <v>86</v>
       </c>
       <c r="C115" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3910,7 +3950,7 @@
         <v>87</v>
       </c>
       <c r="C116" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3921,7 +3961,7 @@
         <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3932,7 +3972,7 @@
         <v>89</v>
       </c>
       <c r="C118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3943,7 +3983,7 @@
         <v>90</v>
       </c>
       <c r="C119" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3954,7 +3994,7 @@
         <v>91</v>
       </c>
       <c r="C120" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3965,7 +4005,7 @@
         <v>92</v>
       </c>
       <c r="C121" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3976,7 +4016,7 @@
         <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3987,7 +4027,7 @@
         <v>94</v>
       </c>
       <c r="C123" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3998,7 +4038,7 @@
         <v>95</v>
       </c>
       <c r="C124" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4009,7 +4049,7 @@
         <v>96</v>
       </c>
       <c r="C125" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4020,35 +4060,38 @@
         <v>97</v>
       </c>
       <c r="C126" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C127" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D127" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C128" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="D128" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4056,10 +4099,10 @@
         <v>98</v>
       </c>
       <c r="C129" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D129" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4070,10 +4113,10 @@
         <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4081,10 +4124,10 @@
         <v>100</v>
       </c>
       <c r="C131" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D131" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4095,10 +4138,10 @@
         <v>101</v>
       </c>
       <c r="C132" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4106,10 +4149,10 @@
         <v>102</v>
       </c>
       <c r="C133" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D133" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4120,7 +4163,7 @@
         <v>103</v>
       </c>
       <c r="C134" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4131,10 +4174,10 @@
         <v>104</v>
       </c>
       <c r="C135" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4142,7 +4185,10 @@
         <v>105</v>
       </c>
       <c r="C136" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="D136" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4153,7 +4199,7 @@
         <v>106</v>
       </c>
       <c r="C137" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4164,10 +4210,10 @@
         <v>107</v>
       </c>
       <c r="C138" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4175,10 +4221,10 @@
         <v>108</v>
       </c>
       <c r="C139" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D139" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4189,7 +4235,7 @@
         <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4200,7 +4246,7 @@
         <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4211,7 +4257,7 @@
         <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4222,7 +4268,7 @@
         <v>112</v>
       </c>
       <c r="C143" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4233,10 +4279,10 @@
         <v>113</v>
       </c>
       <c r="C144" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4244,10 +4290,10 @@
         <v>114</v>
       </c>
       <c r="C145" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D145" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4255,13 +4301,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C146" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4269,10 +4315,10 @@
         <v>115</v>
       </c>
       <c r="C147" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D147" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4283,10 +4329,10 @@
         <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4294,10 +4340,10 @@
         <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D149" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4308,10 +4354,10 @@
         <v>118</v>
       </c>
       <c r="C150" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4319,10 +4365,10 @@
         <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D151" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4333,7 +4379,7 @@
         <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4344,7 +4390,7 @@
         <v>121</v>
       </c>
       <c r="C153" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4355,10 +4401,10 @@
         <v>122</v>
       </c>
       <c r="C154" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4366,10 +4412,13 @@
         <v>123</v>
       </c>
       <c r="C155" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="D155" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4377,10 +4426,10 @@
         <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D156" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4391,10 +4440,10 @@
         <v>125</v>
       </c>
       <c r="C157" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4402,10 +4451,10 @@
         <v>126</v>
       </c>
       <c r="C158" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D158" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,7 +4465,7 @@
         <v>127</v>
       </c>
       <c r="C159" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -4424,10 +4473,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C160" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -4435,24 +4484,24 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C161" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D162" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -4460,10 +4509,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C163" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -4471,13 +4520,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C164" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4485,13 +4534,13 @@
         <v>128</v>
       </c>
       <c r="C165" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D165" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4499,10 +4548,13 @@
         <v>129</v>
       </c>
       <c r="C166" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="D166" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4510,10 +4562,10 @@
         <v>130</v>
       </c>
       <c r="C167" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D167" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4524,10 +4576,10 @@
         <v>131</v>
       </c>
       <c r="C168" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4535,13 +4587,13 @@
         <v>132</v>
       </c>
       <c r="C169" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D169" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4549,7 +4601,10 @@
         <v>133</v>
       </c>
       <c r="C170" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="D170" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -4560,10 +4615,10 @@
         <v>134</v>
       </c>
       <c r="C171" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4571,13 +4626,13 @@
         <v>135</v>
       </c>
       <c r="C172" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D172" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4585,7 +4640,10 @@
         <v>136</v>
       </c>
       <c r="C173" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="D173" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4596,10 +4654,10 @@
         <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4607,10 +4665,10 @@
         <v>138</v>
       </c>
       <c r="C175" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D175" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4621,10 +4679,10 @@
         <v>139</v>
       </c>
       <c r="C176" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4632,7 +4690,10 @@
         <v>140</v>
       </c>
       <c r="C177" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="D177" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4643,7 +4704,7 @@
         <v>141</v>
       </c>
       <c r="C178" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,7 +4715,7 @@
         <v>142</v>
       </c>
       <c r="C179" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4665,21 +4726,21 @@
         <v>143</v>
       </c>
       <c r="C180" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C181" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D181" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4687,35 +4748,38 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C182" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C183" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D183" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C184" t="s">
-        <v>497</v>
+        <v>496</v>
+      </c>
+      <c r="D184" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4726,21 +4790,21 @@
         <v>144</v>
       </c>
       <c r="C185" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C186" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D186" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4748,10 +4812,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C187" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4762,7 +4826,7 @@
         <v>145</v>
       </c>
       <c r="C188" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4773,7 +4837,7 @@
         <v>146</v>
       </c>
       <c r="C189" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4784,7 +4848,7 @@
         <v>147</v>
       </c>
       <c r="C190" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4795,10 +4859,10 @@
         <v>148</v>
       </c>
       <c r="C191" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4806,10 +4870,10 @@
         <v>149</v>
       </c>
       <c r="C192" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D192" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4820,7 +4884,7 @@
         <v>150</v>
       </c>
       <c r="C193" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4831,10 +4895,10 @@
         <v>151</v>
       </c>
       <c r="C194" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4842,10 +4906,10 @@
         <v>152</v>
       </c>
       <c r="C195" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4856,7 +4920,7 @@
         <v>153</v>
       </c>
       <c r="C196" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4867,7 +4931,7 @@
         <v>154</v>
       </c>
       <c r="C197" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,7 +4942,7 @@
         <v>155</v>
       </c>
       <c r="C198" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4889,7 +4953,7 @@
         <v>156</v>
       </c>
       <c r="C199" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4900,7 +4964,7 @@
         <v>157</v>
       </c>
       <c r="C200" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4911,7 +4975,7 @@
         <v>158</v>
       </c>
       <c r="C201" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4922,7 +4986,7 @@
         <v>159</v>
       </c>
       <c r="C202" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4933,7 +4997,7 @@
         <v>160</v>
       </c>
       <c r="C203" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4944,7 +5008,7 @@
         <v>161</v>
       </c>
       <c r="C204" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4955,18 +5019,21 @@
         <v>162</v>
       </c>
       <c r="C205" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C206" t="s">
-        <v>622</v>
+        <v>621</v>
+      </c>
+      <c r="D206" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4974,10 +5041,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C207" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4985,13 +5052,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C208" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4999,10 +5066,10 @@
         <v>163</v>
       </c>
       <c r="C209" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D209" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5013,10 +5080,10 @@
         <v>164</v>
       </c>
       <c r="C210" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5024,10 +5091,10 @@
         <v>165</v>
       </c>
       <c r="C211" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D211" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5038,7 +5105,7 @@
         <v>166</v>
       </c>
       <c r="C212" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5049,7 +5116,7 @@
         <v>167</v>
       </c>
       <c r="C213" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5060,10 +5127,10 @@
         <v>168</v>
       </c>
       <c r="C214" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5071,7 +5138,10 @@
         <v>169</v>
       </c>
       <c r="C215" t="s">
-        <v>595</v>
+        <v>594</v>
+      </c>
+      <c r="D215" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5082,7 +5152,7 @@
         <v>170</v>
       </c>
       <c r="C216" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5093,10 +5163,10 @@
         <v>171</v>
       </c>
       <c r="C217" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5104,24 +5174,24 @@
         <v>172</v>
       </c>
       <c r="C218" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D218" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C219" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D219" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5129,13 +5199,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C220" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5143,7 +5213,10 @@
         <v>173</v>
       </c>
       <c r="C221" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="D221" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5154,7 +5227,7 @@
         <v>174</v>
       </c>
       <c r="C222" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5165,7 +5238,7 @@
         <v>175</v>
       </c>
       <c r="C223" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5176,10 +5249,10 @@
         <v>176</v>
       </c>
       <c r="C224" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5187,10 +5260,13 @@
         <v>177</v>
       </c>
       <c r="C225" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="D225" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5198,21 +5274,24 @@
         <v>178</v>
       </c>
       <c r="C226" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C227" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+      <c r="D227" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5220,10 +5299,13 @@
         <v>179</v>
       </c>
       <c r="C228" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="D228" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5231,10 +5313,13 @@
         <v>180</v>
       </c>
       <c r="C229" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+      <c r="D229" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5242,10 +5327,10 @@
         <v>181</v>
       </c>
       <c r="C230" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5253,10 +5338,13 @@
         <v>182</v>
       </c>
       <c r="C231" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="D231" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5264,10 +5352,13 @@
         <v>183</v>
       </c>
       <c r="C232" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="D232" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5275,10 +5366,13 @@
         <v>184</v>
       </c>
       <c r="C233" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="D233" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5286,10 +5380,10 @@
         <v>185</v>
       </c>
       <c r="C234" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5297,10 +5391,13 @@
         <v>186</v>
       </c>
       <c r="C235" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="D235" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5308,98 +5405,110 @@
         <v>187</v>
       </c>
       <c r="C236" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="D236" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C237" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C238" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C239" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="D239" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C240" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="D240" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C241" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C242" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D242" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C243" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C244" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5407,10 +5516,10 @@
         <v>188</v>
       </c>
       <c r="C245" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5418,10 +5527,10 @@
         <v>189</v>
       </c>
       <c r="C246" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5429,10 +5538,13 @@
         <v>190</v>
       </c>
       <c r="C247" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="D247" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5440,10 +5552,10 @@
         <v>191</v>
       </c>
       <c r="C248" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5451,10 +5563,10 @@
         <v>192</v>
       </c>
       <c r="C249" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5462,10 +5574,13 @@
         <v>193</v>
       </c>
       <c r="C250" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="D250" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5473,21 +5588,24 @@
         <v>194</v>
       </c>
       <c r="C251" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="D251" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C252" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5495,10 +5613,10 @@
         <v>195</v>
       </c>
       <c r="C253" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5506,10 +5624,13 @@
         <v>196</v>
       </c>
       <c r="C254" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="D254" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5517,10 +5638,10 @@
         <v>197</v>
       </c>
       <c r="C255" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5528,7 +5649,7 @@
         <v>198</v>
       </c>
       <c r="C256" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -5539,7 +5660,7 @@
         <v>199</v>
       </c>
       <c r="C257" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -5550,7 +5671,7 @@
         <v>200</v>
       </c>
       <c r="C258" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -5561,7 +5682,7 @@
         <v>201</v>
       </c>
       <c r="C259" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -5572,7 +5693,7 @@
         <v>202</v>
       </c>
       <c r="C260" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -5583,7 +5704,7 @@
         <v>203</v>
       </c>
       <c r="C261" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -5594,7 +5715,7 @@
         <v>204</v>
       </c>
       <c r="C262" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -5605,7 +5726,7 @@
         <v>205</v>
       </c>
       <c r="C263" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -5616,7 +5737,7 @@
         <v>206</v>
       </c>
       <c r="C264" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -5627,7 +5748,7 @@
         <v>207</v>
       </c>
       <c r="C265" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -5638,7 +5759,7 @@
         <v>208</v>
       </c>
       <c r="C266" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -5649,7 +5770,7 @@
         <v>209</v>
       </c>
       <c r="C267" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -5660,7 +5781,7 @@
         <v>210</v>
       </c>
       <c r="C268" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -5671,7 +5792,7 @@
         <v>211</v>
       </c>
       <c r="C269" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -5682,7 +5803,7 @@
         <v>212</v>
       </c>
       <c r="C270" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -5693,7 +5814,7 @@
         <v>213</v>
       </c>
       <c r="C271" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -5704,10 +5825,10 @@
         <v>214</v>
       </c>
       <c r="C272" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5715,10 +5836,10 @@
         <v>215</v>
       </c>
       <c r="C273" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5726,10 +5847,13 @@
         <v>216</v>
       </c>
       <c r="C274" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="D274" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5737,10 +5861,10 @@
         <v>217</v>
       </c>
       <c r="C275" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5748,10 +5872,10 @@
         <v>218</v>
       </c>
       <c r="C276" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5759,10 +5883,10 @@
         <v>219</v>
       </c>
       <c r="C277" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5770,10 +5894,10 @@
         <v>220</v>
       </c>
       <c r="C278" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5781,10 +5905,10 @@
         <v>221</v>
       </c>
       <c r="C279" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5792,10 +5916,10 @@
         <v>222</v>
       </c>
       <c r="C280" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5803,10 +5927,10 @@
         <v>223</v>
       </c>
       <c r="C281" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5814,10 +5938,13 @@
         <v>224</v>
       </c>
       <c r="C282" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="D282" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5825,10 +5952,10 @@
         <v>225</v>
       </c>
       <c r="C283" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5836,10 +5963,10 @@
         <v>226</v>
       </c>
       <c r="C284" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5847,10 +5974,10 @@
         <v>227</v>
       </c>
       <c r="C285" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5858,10 +5985,13 @@
         <v>228</v>
       </c>
       <c r="C286" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="D286" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5869,10 +5999,10 @@
         <v>229</v>
       </c>
       <c r="C287" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5880,10 +6010,10 @@
         <v>230</v>
       </c>
       <c r="C288" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5891,10 +6021,10 @@
         <v>231</v>
       </c>
       <c r="C289" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5902,10 +6032,10 @@
         <v>232</v>
       </c>
       <c r="C290" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5913,10 +6043,10 @@
         <v>233</v>
       </c>
       <c r="C291" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5924,10 +6054,10 @@
         <v>234</v>
       </c>
       <c r="C292" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5935,10 +6065,13 @@
         <v>235</v>
       </c>
       <c r="C293" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="D293" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5946,10 +6079,10 @@
         <v>236</v>
       </c>
       <c r="C294" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5957,10 +6090,10 @@
         <v>237</v>
       </c>
       <c r="C295" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5968,10 +6101,10 @@
         <v>238</v>
       </c>
       <c r="C296" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5979,10 +6112,13 @@
         <v>239</v>
       </c>
       <c r="C297" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="D297" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -5990,10 +6126,10 @@
         <v>240</v>
       </c>
       <c r="C298" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -6001,10 +6137,10 @@
         <v>241</v>
       </c>
       <c r="C299" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -6012,10 +6148,10 @@
         <v>242</v>
       </c>
       <c r="C300" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -6023,10 +6159,13 @@
         <v>243</v>
       </c>
       <c r="C301" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="D301" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -6034,32 +6173,32 @@
         <v>244</v>
       </c>
       <c r="C302" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C303" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C304" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -6067,10 +6206,10 @@
         <v>245</v>
       </c>
       <c r="C305" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -6078,10 +6217,10 @@
         <v>246</v>
       </c>
       <c r="C306" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -6089,10 +6228,10 @@
         <v>247</v>
       </c>
       <c r="C307" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -6100,10 +6239,13 @@
         <v>248</v>
       </c>
       <c r="C308" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="D308" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -6111,65 +6253,77 @@
         <v>249</v>
       </c>
       <c r="C309" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="D309" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C311" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="D311" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C312" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C313" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+      <c r="D313" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C314" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+      <c r="D314" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6177,10 +6331,13 @@
         <v>250</v>
       </c>
       <c r="C315" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="D315" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -6188,10 +6345,10 @@
         <v>251</v>
       </c>
       <c r="C316" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -6199,10 +6356,13 @@
         <v>252</v>
       </c>
       <c r="C317" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="D317" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -6210,10 +6370,13 @@
         <v>253</v>
       </c>
       <c r="C318" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="D318" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -6221,10 +6384,13 @@
         <v>254</v>
       </c>
       <c r="C319" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="D319" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -6232,10 +6398,10 @@
         <v>255</v>
       </c>
       <c r="C320" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -6243,10 +6409,13 @@
         <v>256</v>
       </c>
       <c r="C321" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+      <c r="D321" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -6254,10 +6423,13 @@
         <v>257</v>
       </c>
       <c r="C322" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="D322" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -6265,10 +6437,10 @@
         <v>258</v>
       </c>
       <c r="C323" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -6276,10 +6448,10 @@
         <v>259</v>
       </c>
       <c r="C324" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -6287,10 +6459,13 @@
         <v>260</v>
       </c>
       <c r="C325" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="D325" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -6298,10 +6473,10 @@
         <v>261</v>
       </c>
       <c r="C326" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -6309,43 +6484,46 @@
         <v>262</v>
       </c>
       <c r="C327" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C328" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="D328" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C329" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C330" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -6353,10 +6531,10 @@
         <v>263</v>
       </c>
       <c r="C331" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -6364,10 +6542,10 @@
         <v>264</v>
       </c>
       <c r="C332" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -6375,65 +6553,65 @@
         <v>265</v>
       </c>
       <c r="C333" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C334" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C335" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C336" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C337" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C338" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -6441,10 +6619,10 @@
         <v>266</v>
       </c>
       <c r="C339" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -6452,10 +6630,10 @@
         <v>267</v>
       </c>
       <c r="C340" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -6463,10 +6641,10 @@
         <v>268</v>
       </c>
       <c r="C341" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -6474,10 +6652,13 @@
         <v>269</v>
       </c>
       <c r="C342" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="D342" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -6485,10 +6666,10 @@
         <v>270</v>
       </c>
       <c r="C343" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -6496,32 +6677,35 @@
         <v>271</v>
       </c>
       <c r="C344" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" t="s">
+        <v>654</v>
+      </c>
+      <c r="C345" t="s">
         <v>655</v>
       </c>
-      <c r="C345" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C346" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="D346" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -6529,10 +6713,10 @@
         <v>272</v>
       </c>
       <c r="C347" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -6540,10 +6724,10 @@
         <v>273</v>
       </c>
       <c r="C348" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -6551,65 +6735,74 @@
         <v>274</v>
       </c>
       <c r="C349" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C350" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+      <c r="D350" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C351" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C352" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+      <c r="D352" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C353" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+      <c r="D353" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" t="s">
+        <v>663</v>
+      </c>
+      <c r="C354" t="s">
         <v>664</v>
       </c>
-      <c r="C354" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -6617,10 +6810,13 @@
         <v>275</v>
       </c>
       <c r="C355" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="D355" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -6628,10 +6824,13 @@
         <v>276</v>
       </c>
       <c r="C356" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="D356" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -6639,10 +6838,13 @@
         <v>277</v>
       </c>
       <c r="C357" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="D357" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -6650,10 +6852,10 @@
         <v>278</v>
       </c>
       <c r="C358" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -6661,10 +6863,13 @@
         <v>279</v>
       </c>
       <c r="C359" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="D359" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -6672,10 +6877,10 @@
         <v>280</v>
       </c>
       <c r="C360" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -6683,10 +6888,10 @@
         <v>281</v>
       </c>
       <c r="C361" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -6694,10 +6899,10 @@
         <v>282</v>
       </c>
       <c r="C362" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -6705,10 +6910,10 @@
         <v>283</v>
       </c>
       <c r="C363" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -6716,10 +6921,13 @@
         <v>284</v>
       </c>
       <c r="C364" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="D364" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -6727,40 +6935,40 @@
         <v>285</v>
       </c>
       <c r="C365" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C366" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C368" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -6768,10 +6976,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C369" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -6779,10 +6987,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C370" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6790,10 +6998,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C371" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -6801,10 +7009,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C372" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -6815,7 +7023,7 @@
         <v>286</v>
       </c>
       <c r="C373" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -6826,7 +7034,7 @@
         <v>287</v>
       </c>
       <c r="C374" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6834,10 +7042,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C375" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6845,10 +7053,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C376" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -6856,10 +7064,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C377" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6867,10 +7075,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C378" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -6881,7 +7089,7 @@
         <v>288</v>
       </c>
       <c r="C379" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6892,7 +7100,7 @@
         <v>289</v>
       </c>
       <c r="C380" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6903,7 +7111,7 @@
         <v>290</v>
       </c>
       <c r="C381" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6914,7 +7122,7 @@
         <v>291</v>
       </c>
       <c r="C382" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -6925,7 +7133,7 @@
         <v>292</v>
       </c>
       <c r="C383" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -6936,7 +7144,7 @@
         <v>293</v>
       </c>
       <c r="C384" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6947,7 +7155,7 @@
         <v>294</v>
       </c>
       <c r="C385" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6958,7 +7166,7 @@
         <v>295</v>
       </c>
       <c r="C386" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -6969,7 +7177,7 @@
         <v>296</v>
       </c>
       <c r="C387" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -6980,7 +7188,7 @@
         <v>297</v>
       </c>
       <c r="C388" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -6991,7 +7199,7 @@
         <v>298</v>
       </c>
       <c r="C389" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -7002,7 +7210,7 @@
         <v>299</v>
       </c>
       <c r="C390" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -7013,7 +7221,7 @@
         <v>300</v>
       </c>
       <c r="C391" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -7024,7 +7232,7 @@
         <v>301</v>
       </c>
       <c r="C392" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -7035,7 +7243,7 @@
         <v>302</v>
       </c>
       <c r="C393" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -7046,7 +7254,7 @@
         <v>303</v>
       </c>
       <c r="C394" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -7057,7 +7265,7 @@
         <v>304</v>
       </c>
       <c r="C395" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -7065,10 +7273,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C396" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -7076,10 +7284,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C397" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -7087,10 +7295,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C398" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -7098,10 +7306,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C399" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -7109,10 +7317,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C400" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -7120,24 +7328,24 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C401" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>900</v>
       </c>
       <c r="B402" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C402" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D402" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -7148,10 +7356,10 @@
         <v>288</v>
       </c>
       <c r="C403" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>902</v>
       </c>
@@ -7159,13 +7367,13 @@
         <v>152</v>
       </c>
       <c r="C404" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D404" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>903</v>
       </c>
@@ -7173,10 +7381,52 @@
         <v>154</v>
       </c>
       <c r="C405" t="s">
+        <v>597</v>
+      </c>
+      <c r="D405" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>904</v>
+      </c>
+      <c r="B406" t="s">
+        <v>40</v>
+      </c>
+      <c r="C406" t="s">
         <v>598</v>
       </c>
-      <c r="D405" t="s">
-        <v>680</v>
+      <c r="D406" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>905</v>
+      </c>
+      <c r="B407" t="s">
+        <v>230</v>
+      </c>
+      <c r="C407" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="D407" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>906</v>
+      </c>
+      <c r="B408" t="s">
+        <v>331</v>
+      </c>
+      <c r="C408" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="D408" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -7211,13 +7461,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" t="s">
         <v>666</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>667</v>
-      </c>
-      <c r="C1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7426,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7503,7 +7753,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -7514,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -7525,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -7690,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -7800,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -9021,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -9032,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -9252,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -9263,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -9450,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -9461,7 +9711,7 @@
         <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -9472,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -9593,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -9604,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -9615,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -9626,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -9637,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -9648,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -9659,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -9670,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -9681,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -9692,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -9703,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -9714,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -9725,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -9736,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -9747,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -9758,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -9769,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -9780,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -9791,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -9802,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -9813,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -9824,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -9835,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -9846,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -9857,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -9868,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -9879,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="C243" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -9890,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -9901,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="C245" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -9912,7 +10162,7 @@
         <v>2</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -9923,7 +10173,7 @@
         <v>2</v>
       </c>
       <c r="C247" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -9934,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -9945,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="C249" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -9956,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="C250" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -9967,7 +10217,7 @@
         <v>2</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -9978,7 +10228,7 @@
         <v>2</v>
       </c>
       <c r="C252" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -9989,7 +10239,7 @@
         <v>2</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -10000,7 +10250,7 @@
         <v>2</v>
       </c>
       <c r="C254" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -10011,7 +10261,7 @@
         <v>2</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -10022,7 +10272,7 @@
         <v>2</v>
       </c>
       <c r="C256" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -10033,7 +10283,7 @@
         <v>2</v>
       </c>
       <c r="C257" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -10044,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="C258" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
